--- a/resources/excelfile.xlsx
+++ b/resources/excelfile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -82,6 +82,54 @@
   </si>
   <si>
     <t>POPULATION</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>8888</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10101010</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>12121212</t>
+  </si>
+  <si>
+    <t>13131313</t>
+  </si>
+  <si>
+    <t>14141414</t>
+  </si>
+  <si>
+    <t>15151515</t>
   </si>
 </sst>
 </file>
@@ -379,8 +427,8 @@
       <c r="B2" t="n" s="0">
         <v>1111.0</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>1234.0</v>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -390,8 +438,8 @@
       <c r="B3" s="3">
         <v>9569901.0</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>123456.0</v>
+      <c r="C3" t="s" s="0">
+        <v>23</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
@@ -403,8 +451,8 @@
       <c r="B4" s="3">
         <v>9158960.0</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>1.23456789E8</v>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -414,6 +462,9 @@
       <c r="B5" s="3">
         <v>9093507.0</v>
       </c>
+      <c r="C5" t="s" s="0">
+        <v>25</v>
+      </c>
       <c r="E5" t="n" s="0">
         <v>4444.0</v>
       </c>
@@ -425,6 +476,9 @@
       <c r="B6" s="3">
         <v>8460415.0</v>
       </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -433,6 +487,9 @@
       <c r="B7" s="3">
         <v>7682300.0</v>
       </c>
+      <c r="C7" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -441,6 +498,9 @@
       <c r="B8" s="3">
         <v>2973193.0</v>
       </c>
+      <c r="C8" t="s" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -449,6 +509,9 @@
       <c r="B9" s="3">
         <v>2736690.0</v>
       </c>
+      <c r="C9" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -457,6 +520,9 @@
       <c r="B10" s="3">
         <v>2699700.0</v>
       </c>
+      <c r="C10" t="s" s="0">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -465,6 +531,9 @@
       <c r="B11" s="3">
         <v>2381741.0</v>
       </c>
+      <c r="C11" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -473,6 +542,9 @@
       <c r="B12" s="3">
         <v>2381741.0</v>
       </c>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -481,6 +553,9 @@
       <c r="B13" s="3">
         <v>1943945.0</v>
       </c>
+      <c r="C13" t="s" s="0">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -489,6 +564,9 @@
       <c r="B14" s="3">
         <v>1811569.0</v>
       </c>
+      <c r="C14" t="s" s="0">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -497,6 +575,9 @@
       <c r="B15" s="3">
         <v>1765050.0</v>
       </c>
+      <c r="C15" t="s" s="0">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -504,6 +585,9 @@
       </c>
       <c r="B16" s="3">
         <v>769632.0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
